--- a/custom/tpl/RUP-P.xlsx
+++ b/custom/tpl/RUP-P.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D6EAC-56BC-4F41-9C7F-D83E715F5E38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A61CDE8-0572-4D41-82BA-9E5D79CADF17}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -100,11 +94,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,19 +123,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,31 +163,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -313,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,47 +486,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1F010-A4CC-4766-8C92-FE3353D37377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" customWidth="1"/>
-    <col min="11" max="15" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -555,131 +534,131 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="4" t="s">
+    <row r="8" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>9</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>10</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>11</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>12</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>13</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>14</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
